--- a/Doc/测试及上线/融创设计协同办公平台用户测试用例确认单.xlsx
+++ b/Doc/测试及上线/融创设计协同办公平台用户测试用例确认单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\测试及上线\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A719AD-2341-4F00-A150-0F2490660F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D304D6-EF73-4537-B8FB-9A4889CFEF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="564" yWindow="1500" windowWidth="19212" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="521">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,6 +2041,25 @@
   </si>
   <si>
     <t>融创设计协同办公平台测试用例确认单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通风量为负数时，原型也能插入成功的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>门窗深化设计时，如果不关闭对话框，直接点击图上选择来选择新原型，型材系列有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱单开门700，插入尺寸为600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800X1100时生成有错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,19 +2319,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2328,18 +2341,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2717,8 +2736,8 @@
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <pane ySplit="2" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D354" sqref="D354:G354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.25"/>
@@ -2738,15 +2757,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2776,10 +2795,10 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2802,8 +2821,8 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
@@ -2824,8 +2843,8 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
@@ -2843,8 +2862,8 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2862,8 +2881,8 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
@@ -2881,8 +2900,8 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2900,8 +2919,8 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2915,12 +2934,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
@@ -2928,18 +2947,18 @@
         <v>113</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>363</v>
+        <v>516</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>46</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
@@ -2957,8 +2976,8 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
@@ -2976,8 +2995,8 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="11" t="s">
         <v>48</v>
       </c>
@@ -2995,8 +3014,8 @@
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="11" t="s">
         <v>19</v>
       </c>
@@ -3014,8 +3033,8 @@
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>171</v>
       </c>
@@ -3034,8 +3053,8 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
@@ -3053,8 +3072,8 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="11" t="s">
         <v>165</v>
       </c>
@@ -3072,8 +3091,8 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="11" t="s">
         <v>13</v>
       </c>
@@ -3091,8 +3110,8 @@
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
@@ -3110,8 +3129,8 @@
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
@@ -3129,8 +3148,8 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -3150,8 +3169,8 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
@@ -3169,8 +3188,8 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -3190,8 +3209,8 @@
       <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="11" t="s">
         <v>21</v>
       </c>
@@ -3207,8 +3226,8 @@
       <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="11" t="s">
         <v>22</v>
       </c>
@@ -3222,12 +3241,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="11" t="s">
         <v>23</v>
       </c>
@@ -3235,18 +3254,18 @@
         <v>173</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>46</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="11" t="s">
         <v>24</v>
       </c>
@@ -3264,8 +3283,8 @@
       <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="11" t="s">
         <v>25</v>
       </c>
@@ -3283,8 +3302,8 @@
       <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="11" t="s">
         <v>26</v>
       </c>
@@ -3302,8 +3321,8 @@
       <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="11" t="s">
         <v>27</v>
       </c>
@@ -3321,8 +3340,8 @@
       <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -3342,8 +3361,8 @@
       <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="11" t="s">
         <v>183</v>
       </c>
@@ -3361,8 +3380,8 @@
       <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="11" t="s">
         <v>185</v>
       </c>
@@ -3380,8 +3399,8 @@
       <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11" t="s">
         <v>187</v>
       </c>
@@ -3399,8 +3418,8 @@
       <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -3420,8 +3439,8 @@
       <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11" t="s">
         <v>57</v>
       </c>
@@ -3439,8 +3458,8 @@
       <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11" t="s">
         <v>32</v>
       </c>
@@ -3458,10 +3477,10 @@
       <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -3481,8 +3500,8 @@
       <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="11" t="s">
         <v>104</v>
       </c>
@@ -3500,8 +3519,8 @@
       <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="11" t="s">
         <v>105</v>
       </c>
@@ -3519,8 +3538,8 @@
       <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="11" t="s">
         <v>50</v>
       </c>
@@ -3538,8 +3557,8 @@
       <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="11" t="s">
         <v>51</v>
       </c>
@@ -3557,8 +3576,8 @@
       <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="11" t="s">
         <v>52</v>
       </c>
@@ -3576,8 +3595,8 @@
       <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="11" t="s">
         <v>103</v>
       </c>
@@ -3595,8 +3614,8 @@
       <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="11" t="s">
         <v>58</v>
       </c>
@@ -3614,8 +3633,8 @@
       <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="11" t="s">
         <v>59</v>
       </c>
@@ -3633,8 +3652,8 @@
       <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="11" t="s">
         <v>60</v>
       </c>
@@ -3652,8 +3671,8 @@
       <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="11" t="s">
         <v>53</v>
       </c>
@@ -3671,8 +3690,8 @@
       <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="11" t="s">
         <v>54</v>
       </c>
@@ -3690,8 +3709,8 @@
       <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="11" t="s">
         <v>55</v>
       </c>
@@ -3709,8 +3728,8 @@
       <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="11" t="s">
         <v>106</v>
       </c>
@@ -3728,8 +3747,8 @@
       <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="11" t="s">
         <v>106</v>
       </c>
@@ -3748,8 +3767,8 @@
       <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="11" t="s">
         <v>62</v>
       </c>
@@ -3767,8 +3786,8 @@
       <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="11" t="s">
         <v>15</v>
       </c>
@@ -3786,8 +3805,8 @@
       <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -3807,8 +3826,8 @@
       <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="11" t="s">
         <v>64</v>
       </c>
@@ -3826,10 +3845,10 @@
       <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -3849,8 +3868,8 @@
       <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="11" t="s">
         <v>67</v>
       </c>
@@ -3868,8 +3887,8 @@
       <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="11" t="s">
         <v>105</v>
       </c>
@@ -3888,8 +3907,8 @@
       <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="11" t="s">
         <v>50</v>
       </c>
@@ -3907,8 +3926,8 @@
       <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="11" t="s">
         <v>51</v>
       </c>
@@ -3926,8 +3945,8 @@
       <c r="A62" s="10">
         <v>60</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="11" t="s">
         <v>52</v>
       </c>
@@ -3945,8 +3964,8 @@
       <c r="A63" s="10">
         <v>61</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="11" t="s">
         <v>107</v>
       </c>
@@ -3964,8 +3983,8 @@
       <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="11" t="s">
         <v>68</v>
       </c>
@@ -3983,8 +4002,8 @@
       <c r="A65" s="10">
         <v>63</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="11" t="s">
         <v>69</v>
       </c>
@@ -4002,8 +4021,8 @@
       <c r="A66" s="10">
         <v>64</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="11" t="s">
         <v>70</v>
       </c>
@@ -4021,8 +4040,8 @@
       <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="11" t="s">
         <v>72</v>
       </c>
@@ -4040,8 +4059,8 @@
       <c r="A68" s="10">
         <v>66</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="11" t="s">
         <v>73</v>
       </c>
@@ -4059,8 +4078,8 @@
       <c r="A69" s="10">
         <v>67</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="11" t="s">
         <v>74</v>
       </c>
@@ -4078,8 +4097,8 @@
       <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="11" t="s">
         <v>61</v>
       </c>
@@ -4097,8 +4116,8 @@
       <c r="A71" s="10">
         <v>69</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="11" t="s">
         <v>62</v>
       </c>
@@ -4116,8 +4135,8 @@
       <c r="A72" s="10">
         <v>70</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="11" t="s">
         <v>15</v>
       </c>
@@ -4135,8 +4154,8 @@
       <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23" t="s">
+      <c r="B73" s="28"/>
+      <c r="C73" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -4156,8 +4175,8 @@
       <c r="A74" s="10">
         <v>72</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="23"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="11" t="s">
         <v>76</v>
       </c>
@@ -4175,10 +4194,10 @@
       <c r="A75" s="10">
         <v>73</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="32" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -4198,8 +4217,8 @@
       <c r="A76" s="10">
         <v>74</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
@@ -4217,8 +4236,8 @@
       <c r="A77" s="10">
         <v>75</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
@@ -4236,8 +4255,8 @@
       <c r="A78" s="10">
         <v>76</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="11" t="s">
         <v>81</v>
       </c>
@@ -4255,8 +4274,8 @@
       <c r="A79" s="10">
         <v>77</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="11" t="s">
         <v>82</v>
       </c>
@@ -4274,8 +4293,8 @@
       <c r="A80" s="10">
         <v>78</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="11" t="s">
         <v>83</v>
       </c>
@@ -4293,8 +4312,8 @@
       <c r="A81" s="10">
         <v>79</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="11" t="s">
         <v>84</v>
       </c>
@@ -4312,8 +4331,8 @@
       <c r="A82" s="10">
         <v>80</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="23"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="11" t="s">
         <v>85</v>
       </c>
@@ -4331,10 +4350,10 @@
       <c r="A83" s="10">
         <v>81</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -4354,8 +4373,8 @@
       <c r="A84" s="10">
         <v>82</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
@@ -4373,8 +4392,8 @@
       <c r="A85" s="10">
         <v>83</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="11" t="s">
         <v>90</v>
       </c>
@@ -4392,8 +4411,8 @@
       <c r="A86" s="10">
         <v>84</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="13" t="s">
         <v>89</v>
       </c>
@@ -4412,8 +4431,8 @@
       <c r="A87" s="10">
         <v>85</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="11" t="s">
         <v>70</v>
       </c>
@@ -4431,7 +4450,7 @@
       <c r="A88" s="10">
         <v>86</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="14" t="s">
         <v>91</v>
       </c>
@@ -4449,25 +4468,25 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>1</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="27" t="s">
         <v>428</v>
       </c>
       <c r="D90" s="15" t="s">
@@ -4488,8 +4507,8 @@
       <c r="A91" s="10">
         <v>2</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="15" t="s">
         <v>431</v>
       </c>
@@ -4508,8 +4527,8 @@
       <c r="A92" s="10">
         <v>3</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="15" t="s">
         <v>433</v>
       </c>
@@ -4528,8 +4547,8 @@
       <c r="A93" s="10">
         <v>4</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="11" t="s">
         <v>435</v>
       </c>
@@ -4548,8 +4567,8 @@
       <c r="A94" s="10">
         <v>5</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="21"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="11" t="s">
         <v>437</v>
       </c>
@@ -4568,8 +4587,8 @@
       <c r="A95" s="10">
         <v>6</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="20" t="s">
+      <c r="B95" s="28"/>
+      <c r="C95" s="27" t="s">
         <v>439</v>
       </c>
       <c r="D95" s="15" t="s">
@@ -4590,8 +4609,8 @@
       <c r="A96" s="10">
         <v>7</v>
       </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="15" t="s">
         <v>441</v>
       </c>
@@ -4610,8 +4629,8 @@
       <c r="A97" s="10">
         <v>8</v>
       </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="15" t="s">
         <v>443</v>
       </c>
@@ -4630,8 +4649,8 @@
       <c r="A98" s="10">
         <v>9</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="11" t="s">
         <v>444</v>
       </c>
@@ -4650,8 +4669,8 @@
       <c r="A99" s="10">
         <v>10</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="11" t="s">
         <v>445</v>
       </c>
@@ -4670,8 +4689,8 @@
       <c r="A100" s="10">
         <v>11</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="20" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -4692,8 +4711,8 @@
       <c r="A101" s="10">
         <v>12</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="15" t="s">
         <v>447</v>
       </c>
@@ -4712,8 +4731,8 @@
       <c r="A102" s="10">
         <v>13</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="15" t="s">
         <v>449</v>
       </c>
@@ -4732,8 +4751,8 @@
       <c r="A103" s="10">
         <v>14</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="11" t="s">
         <v>450</v>
       </c>
@@ -4752,8 +4771,8 @@
       <c r="A104" s="10">
         <v>15</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="11" t="s">
         <v>452</v>
       </c>
@@ -4772,8 +4791,8 @@
       <c r="A105" s="10">
         <v>16</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="29" t="s">
+      <c r="B105" s="28"/>
+      <c r="C105" s="30" t="s">
         <v>453</v>
       </c>
       <c r="D105" s="15" t="s">
@@ -4794,8 +4813,8 @@
       <c r="A106" s="10">
         <v>17</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="30"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="15" t="s">
         <v>455</v>
       </c>
@@ -4814,8 +4833,8 @@
       <c r="A107" s="10">
         <v>18</v>
       </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="30"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="15" t="s">
         <v>457</v>
       </c>
@@ -4834,8 +4853,8 @@
       <c r="A108" s="10">
         <v>19</v>
       </c>
-      <c r="B108" s="22"/>
-      <c r="C108" s="30"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="11" t="s">
         <v>458</v>
       </c>
@@ -4854,8 +4873,8 @@
       <c r="A109" s="10">
         <v>20</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="30"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="11" t="s">
         <v>459</v>
       </c>
@@ -4874,8 +4893,8 @@
       <c r="A110" s="10">
         <v>21</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="29" t="s">
+      <c r="B110" s="28"/>
+      <c r="C110" s="30" t="s">
         <v>460</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -4896,8 +4915,8 @@
       <c r="A111" s="10">
         <v>22</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="30"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="15" t="s">
         <v>462</v>
       </c>
@@ -4916,8 +4935,8 @@
       <c r="A112" s="10">
         <v>23</v>
       </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="30"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="15" t="s">
         <v>464</v>
       </c>
@@ -4936,8 +4955,8 @@
       <c r="A113" s="10">
         <v>24</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="30"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="11" t="s">
         <v>465</v>
       </c>
@@ -4956,8 +4975,8 @@
       <c r="A114" s="10">
         <v>25</v>
       </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="30"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="11" t="s">
         <v>466</v>
       </c>
@@ -4976,8 +4995,8 @@
       <c r="A115" s="10">
         <v>26</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="29" t="s">
+      <c r="B115" s="28"/>
+      <c r="C115" s="30" t="s">
         <v>467</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -4998,8 +5017,8 @@
       <c r="A116" s="10">
         <v>27</v>
       </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="30"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="15" t="s">
         <v>469</v>
       </c>
@@ -5018,8 +5037,8 @@
       <c r="A117" s="10">
         <v>28</v>
       </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="30"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="15" t="s">
         <v>471</v>
       </c>
@@ -5038,8 +5057,8 @@
       <c r="A118" s="10">
         <v>29</v>
       </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="30"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="11" t="s">
         <v>472</v>
       </c>
@@ -5058,8 +5077,8 @@
       <c r="A119" s="10">
         <v>30</v>
       </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="30"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="11" t="s">
         <v>473</v>
       </c>
@@ -5078,10 +5097,10 @@
       <c r="A120" s="10">
         <v>31</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="32" t="s">
         <v>422</v>
       </c>
       <c r="D120" s="15" t="s">
@@ -5102,8 +5121,8 @@
       <c r="A121" s="10">
         <v>32</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="14" t="s">
         <v>477</v>
       </c>
@@ -5122,8 +5141,8 @@
       <c r="A122" s="10">
         <v>33</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="14" t="s">
         <v>479</v>
       </c>
@@ -5142,8 +5161,8 @@
       <c r="A123" s="10">
         <v>34</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="14" t="s">
         <v>481</v>
       </c>
@@ -5162,8 +5181,8 @@
       <c r="A124" s="10">
         <v>35</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="14" t="s">
         <v>483</v>
       </c>
@@ -5182,10 +5201,10 @@
       <c r="A125" s="10">
         <v>36</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="32" t="s">
         <v>424</v>
       </c>
       <c r="D125" s="15" t="s">
@@ -5206,8 +5225,8 @@
       <c r="A126" s="10">
         <v>37</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
       <c r="D126" s="11" t="s">
         <v>487</v>
       </c>
@@ -5226,8 +5245,8 @@
       <c r="A127" s="10">
         <v>38</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="11" t="s">
         <v>488</v>
       </c>
@@ -5246,8 +5265,8 @@
       <c r="A128" s="10">
         <v>39</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
       <c r="D128" s="11" t="s">
         <v>489</v>
       </c>
@@ -5266,8 +5285,8 @@
       <c r="A129" s="10">
         <v>40</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="11" t="s">
         <v>490</v>
       </c>
@@ -5286,8 +5305,8 @@
       <c r="A130" s="10">
         <v>41</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="11" t="s">
         <v>491</v>
       </c>
@@ -5306,8 +5325,8 @@
       <c r="A131" s="10">
         <v>42</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="11" t="s">
         <v>492</v>
       </c>
@@ -5326,7 +5345,7 @@
       <c r="A132" s="10">
         <v>43</v>
       </c>
-      <c r="B132" s="23"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="10" t="s">
         <v>425</v>
       </c>
@@ -5348,8 +5367,8 @@
       <c r="A133" s="10">
         <v>44</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="20" t="s">
+      <c r="B133" s="32"/>
+      <c r="C133" s="27" t="s">
         <v>427</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -5370,8 +5389,8 @@
       <c r="A134" s="10">
         <v>45</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="21"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="11" t="s">
         <v>497</v>
       </c>
@@ -5390,8 +5409,8 @@
       <c r="A135" s="10">
         <v>46</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="20" t="s">
+      <c r="B135" s="32"/>
+      <c r="C135" s="27" t="s">
         <v>426</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -5412,8 +5431,8 @@
       <c r="A136" s="10">
         <v>47</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="22"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="11" t="s">
         <v>501</v>
       </c>
@@ -5432,8 +5451,8 @@
       <c r="A137" s="10">
         <v>48</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="21"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="29"/>
       <c r="D137" s="11" t="s">
         <v>503</v>
       </c>
@@ -5459,15 +5478,15 @@
       <c r="J138" s="7"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
@@ -5496,7 +5515,7 @@
       <c r="A141" s="10">
         <v>1</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="32" t="s">
         <v>247</v>
       </c>
       <c r="C141" s="17" t="s">
@@ -5519,7 +5538,7 @@
       <c r="A142" s="10">
         <v>2</v>
       </c>
-      <c r="B142" s="23"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="17" t="s">
         <v>194</v>
       </c>
@@ -5540,7 +5559,7 @@
       <c r="A143" s="10">
         <v>3</v>
       </c>
-      <c r="B143" s="23"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="17" t="s">
         <v>194</v>
       </c>
@@ -5561,7 +5580,7 @@
       <c r="A144" s="10">
         <v>4</v>
       </c>
-      <c r="B144" s="23"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="17" t="s">
         <v>240</v>
       </c>
@@ -5582,7 +5601,7 @@
       <c r="A145" s="10">
         <v>5</v>
       </c>
-      <c r="B145" s="23"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="17" t="s">
         <v>240</v>
       </c>
@@ -5603,7 +5622,7 @@
       <c r="A146" s="10">
         <v>6</v>
       </c>
-      <c r="B146" s="23"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="17" t="s">
         <v>240</v>
       </c>
@@ -5624,7 +5643,7 @@
       <c r="A147" s="10">
         <v>7</v>
       </c>
-      <c r="B147" s="23"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="17" t="s">
         <v>312</v>
       </c>
@@ -5645,7 +5664,7 @@
       <c r="A148" s="10">
         <v>8</v>
       </c>
-      <c r="B148" s="23"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="17" t="s">
         <v>312</v>
       </c>
@@ -5666,7 +5685,7 @@
       <c r="A149" s="10">
         <v>9</v>
       </c>
-      <c r="B149" s="23"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="17" t="s">
         <v>312</v>
       </c>
@@ -5687,7 +5706,7 @@
       <c r="A150" s="10">
         <v>10</v>
       </c>
-      <c r="B150" s="23"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="17" t="s">
         <v>195</v>
       </c>
@@ -5708,7 +5727,7 @@
       <c r="A151" s="10">
         <v>11</v>
       </c>
-      <c r="B151" s="23"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="17" t="s">
         <v>195</v>
       </c>
@@ -5729,7 +5748,7 @@
       <c r="A152" s="10">
         <v>12</v>
       </c>
-      <c r="B152" s="23"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="17" t="s">
         <v>195</v>
       </c>
@@ -5750,7 +5769,7 @@
       <c r="A153" s="10">
         <v>13</v>
       </c>
-      <c r="B153" s="23"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="17" t="s">
         <v>196</v>
       </c>
@@ -5771,7 +5790,7 @@
       <c r="A154" s="10">
         <v>14</v>
       </c>
-      <c r="B154" s="23"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="17" t="s">
         <v>196</v>
       </c>
@@ -5792,7 +5811,7 @@
       <c r="A155" s="10">
         <v>15</v>
       </c>
-      <c r="B155" s="23"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="17" t="s">
         <v>196</v>
       </c>
@@ -5813,7 +5832,7 @@
       <c r="A156" s="10">
         <v>16</v>
       </c>
-      <c r="B156" s="23"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="17" t="s">
         <v>197</v>
       </c>
@@ -5834,7 +5853,7 @@
       <c r="A157" s="10">
         <v>17</v>
       </c>
-      <c r="B157" s="23"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="17" t="s">
         <v>197</v>
       </c>
@@ -5855,7 +5874,7 @@
       <c r="A158" s="10">
         <v>18</v>
       </c>
-      <c r="B158" s="23"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="17" t="s">
         <v>197</v>
       </c>
@@ -5876,7 +5895,7 @@
       <c r="A159" s="10">
         <v>19</v>
       </c>
-      <c r="B159" s="23"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="17" t="s">
         <v>239</v>
       </c>
@@ -5897,7 +5916,7 @@
       <c r="A160" s="10">
         <v>20</v>
       </c>
-      <c r="B160" s="23"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="17" t="s">
         <v>239</v>
       </c>
@@ -5918,7 +5937,7 @@
       <c r="A161" s="10">
         <v>21</v>
       </c>
-      <c r="B161" s="23"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="17" t="s">
         <v>239</v>
       </c>
@@ -5939,7 +5958,7 @@
       <c r="A162" s="10">
         <v>22</v>
       </c>
-      <c r="B162" s="23"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="17" t="s">
         <v>313</v>
       </c>
@@ -5960,7 +5979,7 @@
       <c r="A163" s="10">
         <v>23</v>
       </c>
-      <c r="B163" s="23"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="17" t="s">
         <v>313</v>
       </c>
@@ -5981,7 +6000,7 @@
       <c r="A164" s="10">
         <v>24</v>
       </c>
-      <c r="B164" s="23"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="17" t="s">
         <v>313</v>
       </c>
@@ -6002,7 +6021,7 @@
       <c r="A165" s="10">
         <v>25</v>
       </c>
-      <c r="B165" s="23"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="17" t="s">
         <v>238</v>
       </c>
@@ -6023,7 +6042,7 @@
       <c r="A166" s="10">
         <v>26</v>
       </c>
-      <c r="B166" s="23"/>
+      <c r="B166" s="32"/>
       <c r="C166" s="17" t="s">
         <v>238</v>
       </c>
@@ -6044,7 +6063,7 @@
       <c r="A167" s="10">
         <v>27</v>
       </c>
-      <c r="B167" s="23"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="17" t="s">
         <v>238</v>
       </c>
@@ -6065,7 +6084,7 @@
       <c r="A168" s="10">
         <v>28</v>
       </c>
-      <c r="B168" s="23"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="17" t="s">
         <v>321</v>
       </c>
@@ -6086,7 +6105,7 @@
       <c r="A169" s="10">
         <v>29</v>
       </c>
-      <c r="B169" s="23"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="17" t="s">
         <v>321</v>
       </c>
@@ -6107,7 +6126,7 @@
       <c r="A170" s="10">
         <v>30</v>
       </c>
-      <c r="B170" s="23"/>
+      <c r="B170" s="32"/>
       <c r="C170" s="17" t="s">
         <v>321</v>
       </c>
@@ -6128,7 +6147,7 @@
       <c r="A171" s="10">
         <v>31</v>
       </c>
-      <c r="B171" s="23"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="17" t="s">
         <v>230</v>
       </c>
@@ -6149,7 +6168,7 @@
       <c r="A172" s="10">
         <v>32</v>
       </c>
-      <c r="B172" s="23"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="17" t="s">
         <v>230</v>
       </c>
@@ -6170,7 +6189,7 @@
       <c r="A173" s="10">
         <v>33</v>
       </c>
-      <c r="B173" s="23"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="17" t="s">
         <v>230</v>
       </c>
@@ -6191,7 +6210,7 @@
       <c r="A174" s="10">
         <v>34</v>
       </c>
-      <c r="B174" s="23"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="17" t="s">
         <v>235</v>
       </c>
@@ -6212,7 +6231,7 @@
       <c r="A175" s="10">
         <v>35</v>
       </c>
-      <c r="B175" s="23"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="17" t="s">
         <v>235</v>
       </c>
@@ -6233,7 +6252,7 @@
       <c r="A176" s="10">
         <v>36</v>
       </c>
-      <c r="B176" s="23"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="17" t="s">
         <v>235</v>
       </c>
@@ -6254,7 +6273,7 @@
       <c r="A177" s="10">
         <v>37</v>
       </c>
-      <c r="B177" s="23"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="17" t="s">
         <v>229</v>
       </c>
@@ -6275,7 +6294,7 @@
       <c r="A178" s="10">
         <v>38</v>
       </c>
-      <c r="B178" s="23"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="17" t="s">
         <v>229</v>
       </c>
@@ -6296,7 +6315,7 @@
       <c r="A179" s="10">
         <v>39</v>
       </c>
-      <c r="B179" s="23"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="17" t="s">
         <v>229</v>
       </c>
@@ -6317,7 +6336,7 @@
       <c r="A180" s="10">
         <v>40</v>
       </c>
-      <c r="B180" s="23"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="17" t="s">
         <v>329</v>
       </c>
@@ -6338,7 +6357,7 @@
       <c r="A181" s="10">
         <v>41</v>
       </c>
-      <c r="B181" s="23"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="17" t="s">
         <v>329</v>
       </c>
@@ -6359,7 +6378,7 @@
       <c r="A182" s="10">
         <v>42</v>
       </c>
-      <c r="B182" s="23"/>
+      <c r="B182" s="32"/>
       <c r="C182" s="17" t="s">
         <v>329</v>
       </c>
@@ -6380,7 +6399,7 @@
       <c r="A183" s="10">
         <v>43</v>
       </c>
-      <c r="B183" s="23"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="17" t="s">
         <v>234</v>
       </c>
@@ -6401,7 +6420,7 @@
       <c r="A184" s="10">
         <v>44</v>
       </c>
-      <c r="B184" s="23"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="17" t="s">
         <v>234</v>
       </c>
@@ -6422,7 +6441,7 @@
       <c r="A185" s="10">
         <v>45</v>
       </c>
-      <c r="B185" s="23"/>
+      <c r="B185" s="32"/>
       <c r="C185" s="17" t="s">
         <v>234</v>
       </c>
@@ -6443,7 +6462,7 @@
       <c r="A186" s="10">
         <v>46</v>
       </c>
-      <c r="B186" s="23"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="17" t="s">
         <v>233</v>
       </c>
@@ -6464,7 +6483,7 @@
       <c r="A187" s="10">
         <v>47</v>
       </c>
-      <c r="B187" s="23"/>
+      <c r="B187" s="32"/>
       <c r="C187" s="17" t="s">
         <v>233</v>
       </c>
@@ -6485,7 +6504,7 @@
       <c r="A188" s="10">
         <v>48</v>
       </c>
-      <c r="B188" s="23"/>
+      <c r="B188" s="32"/>
       <c r="C188" s="17" t="s">
         <v>233</v>
       </c>
@@ -6506,7 +6525,7 @@
       <c r="A189" s="10">
         <v>49</v>
       </c>
-      <c r="B189" s="23"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="17" t="s">
         <v>232</v>
       </c>
@@ -6527,7 +6546,7 @@
       <c r="A190" s="10">
         <v>50</v>
       </c>
-      <c r="B190" s="23"/>
+      <c r="B190" s="32"/>
       <c r="C190" s="17" t="s">
         <v>232</v>
       </c>
@@ -6548,7 +6567,7 @@
       <c r="A191" s="10">
         <v>51</v>
       </c>
-      <c r="B191" s="23"/>
+      <c r="B191" s="32"/>
       <c r="C191" s="17" t="s">
         <v>232</v>
       </c>
@@ -6569,7 +6588,7 @@
       <c r="A192" s="10">
         <v>52</v>
       </c>
-      <c r="B192" s="23"/>
+      <c r="B192" s="32"/>
       <c r="C192" s="17" t="s">
         <v>231</v>
       </c>
@@ -6590,7 +6609,7 @@
       <c r="A193" s="10">
         <v>53</v>
       </c>
-      <c r="B193" s="23"/>
+      <c r="B193" s="32"/>
       <c r="C193" s="17" t="s">
         <v>231</v>
       </c>
@@ -6611,7 +6630,7 @@
       <c r="A194" s="10">
         <v>54</v>
       </c>
-      <c r="B194" s="23"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="17" t="s">
         <v>231</v>
       </c>
@@ -6632,7 +6651,7 @@
       <c r="A195" s="10">
         <v>55</v>
       </c>
-      <c r="B195" s="23"/>
+      <c r="B195" s="32"/>
       <c r="C195" s="17" t="s">
         <v>330</v>
       </c>
@@ -6653,7 +6672,7 @@
       <c r="A196" s="10">
         <v>56</v>
       </c>
-      <c r="B196" s="23"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="17" t="s">
         <v>330</v>
       </c>
@@ -6674,7 +6693,7 @@
       <c r="A197" s="10">
         <v>57</v>
       </c>
-      <c r="B197" s="23"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="17" t="s">
         <v>330</v>
       </c>
@@ -6695,7 +6714,7 @@
       <c r="A198" s="10">
         <v>58</v>
       </c>
-      <c r="B198" s="23"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="17" t="s">
         <v>331</v>
       </c>
@@ -6716,7 +6735,7 @@
       <c r="A199" s="10">
         <v>59</v>
       </c>
-      <c r="B199" s="23"/>
+      <c r="B199" s="32"/>
       <c r="C199" s="17" t="s">
         <v>331</v>
       </c>
@@ -6737,7 +6756,7 @@
       <c r="A200" s="10">
         <v>60</v>
       </c>
-      <c r="B200" s="23"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="17" t="s">
         <v>331</v>
       </c>
@@ -6758,7 +6777,7 @@
       <c r="A201" s="10">
         <v>61</v>
       </c>
-      <c r="B201" s="23"/>
+      <c r="B201" s="32"/>
       <c r="C201" s="17" t="s">
         <v>228</v>
       </c>
@@ -6779,7 +6798,7 @@
       <c r="A202" s="10">
         <v>62</v>
       </c>
-      <c r="B202" s="23"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="17" t="s">
         <v>228</v>
       </c>
@@ -6800,7 +6819,7 @@
       <c r="A203" s="10">
         <v>63</v>
       </c>
-      <c r="B203" s="23"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="17" t="s">
         <v>228</v>
       </c>
@@ -6821,7 +6840,7 @@
       <c r="A204" s="10">
         <v>64</v>
       </c>
-      <c r="B204" s="23"/>
+      <c r="B204" s="32"/>
       <c r="C204" s="17" t="s">
         <v>332</v>
       </c>
@@ -6842,7 +6861,7 @@
       <c r="A205" s="10">
         <v>65</v>
       </c>
-      <c r="B205" s="23"/>
+      <c r="B205" s="32"/>
       <c r="C205" s="17" t="s">
         <v>332</v>
       </c>
@@ -6863,7 +6882,7 @@
       <c r="A206" s="10">
         <v>66</v>
       </c>
-      <c r="B206" s="23"/>
+      <c r="B206" s="32"/>
       <c r="C206" s="17" t="s">
         <v>227</v>
       </c>
@@ -6884,7 +6903,7 @@
       <c r="A207" s="10">
         <v>67</v>
       </c>
-      <c r="B207" s="23"/>
+      <c r="B207" s="32"/>
       <c r="C207" s="17" t="s">
         <v>226</v>
       </c>
@@ -6905,7 +6924,7 @@
       <c r="A208" s="10">
         <v>68</v>
       </c>
-      <c r="B208" s="23"/>
+      <c r="B208" s="32"/>
       <c r="C208" s="17" t="s">
         <v>237</v>
       </c>
@@ -6926,7 +6945,7 @@
       <c r="A209" s="10">
         <v>69</v>
       </c>
-      <c r="B209" s="23"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="17" t="s">
         <v>237</v>
       </c>
@@ -6947,7 +6966,7 @@
       <c r="A210" s="10">
         <v>70</v>
       </c>
-      <c r="B210" s="23"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="17" t="s">
         <v>237</v>
       </c>
@@ -6968,7 +6987,7 @@
       <c r="A211" s="10">
         <v>71</v>
       </c>
-      <c r="B211" s="23"/>
+      <c r="B211" s="32"/>
       <c r="C211" s="17" t="s">
         <v>327</v>
       </c>
@@ -6989,7 +7008,7 @@
       <c r="A212" s="10">
         <v>72</v>
       </c>
-      <c r="B212" s="23"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="17" t="s">
         <v>327</v>
       </c>
@@ -7010,7 +7029,7 @@
       <c r="A213" s="10">
         <v>73</v>
       </c>
-      <c r="B213" s="23"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="17" t="s">
         <v>327</v>
       </c>
@@ -7031,7 +7050,7 @@
       <c r="A214" s="10">
         <v>74</v>
       </c>
-      <c r="B214" s="23"/>
+      <c r="B214" s="32"/>
       <c r="C214" s="17" t="s">
         <v>236</v>
       </c>
@@ -7052,7 +7071,7 @@
       <c r="A215" s="10">
         <v>75</v>
       </c>
-      <c r="B215" s="23"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="17" t="s">
         <v>236</v>
       </c>
@@ -7073,7 +7092,7 @@
       <c r="A216" s="10">
         <v>76</v>
       </c>
-      <c r="B216" s="23"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="17" t="s">
         <v>236</v>
       </c>
@@ -7094,7 +7113,7 @@
       <c r="A217" s="10">
         <v>77</v>
       </c>
-      <c r="B217" s="23"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="17" t="s">
         <v>328</v>
       </c>
@@ -7115,7 +7134,7 @@
       <c r="A218" s="10">
         <v>78</v>
       </c>
-      <c r="B218" s="23"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="17" t="s">
         <v>328</v>
       </c>
@@ -7136,7 +7155,7 @@
       <c r="A219" s="10">
         <v>79</v>
       </c>
-      <c r="B219" s="23"/>
+      <c r="B219" s="32"/>
       <c r="C219" s="17" t="s">
         <v>328</v>
       </c>
@@ -7157,7 +7176,7 @@
       <c r="A220" s="10">
         <v>80</v>
       </c>
-      <c r="B220" s="23"/>
+      <c r="B220" s="32"/>
       <c r="C220" s="17" t="s">
         <v>212</v>
       </c>
@@ -7178,7 +7197,7 @@
       <c r="A221" s="10">
         <v>81</v>
       </c>
-      <c r="B221" s="23"/>
+      <c r="B221" s="32"/>
       <c r="C221" s="17" t="s">
         <v>212</v>
       </c>
@@ -7199,7 +7218,7 @@
       <c r="A222" s="10">
         <v>82</v>
       </c>
-      <c r="B222" s="23"/>
+      <c r="B222" s="32"/>
       <c r="C222" s="17" t="s">
         <v>212</v>
       </c>
@@ -7220,7 +7239,7 @@
       <c r="A223" s="10">
         <v>83</v>
       </c>
-      <c r="B223" s="23"/>
+      <c r="B223" s="32"/>
       <c r="C223" s="17" t="s">
         <v>211</v>
       </c>
@@ -7241,7 +7260,7 @@
       <c r="A224" s="10">
         <v>84</v>
       </c>
-      <c r="B224" s="23"/>
+      <c r="B224" s="32"/>
       <c r="C224" s="17" t="s">
         <v>211</v>
       </c>
@@ -7262,7 +7281,7 @@
       <c r="A225" s="10">
         <v>85</v>
       </c>
-      <c r="B225" s="23"/>
+      <c r="B225" s="32"/>
       <c r="C225" s="17" t="s">
         <v>211</v>
       </c>
@@ -7283,7 +7302,7 @@
       <c r="A226" s="10">
         <v>86</v>
       </c>
-      <c r="B226" s="23"/>
+      <c r="B226" s="32"/>
       <c r="C226" s="17" t="s">
         <v>210</v>
       </c>
@@ -7304,7 +7323,7 @@
       <c r="A227" s="10">
         <v>87</v>
       </c>
-      <c r="B227" s="23"/>
+      <c r="B227" s="32"/>
       <c r="C227" s="17" t="s">
         <v>210</v>
       </c>
@@ -7325,7 +7344,7 @@
       <c r="A228" s="10">
         <v>88</v>
       </c>
-      <c r="B228" s="23"/>
+      <c r="B228" s="32"/>
       <c r="C228" s="17" t="s">
         <v>210</v>
       </c>
@@ -7346,7 +7365,7 @@
       <c r="A229" s="10">
         <v>89</v>
       </c>
-      <c r="B229" s="23"/>
+      <c r="B229" s="32"/>
       <c r="C229" s="17" t="s">
         <v>209</v>
       </c>
@@ -7367,7 +7386,7 @@
       <c r="A230" s="10">
         <v>90</v>
       </c>
-      <c r="B230" s="23"/>
+      <c r="B230" s="32"/>
       <c r="C230" s="17" t="s">
         <v>209</v>
       </c>
@@ -7388,7 +7407,7 @@
       <c r="A231" s="10">
         <v>91</v>
       </c>
-      <c r="B231" s="23"/>
+      <c r="B231" s="32"/>
       <c r="C231" s="17" t="s">
         <v>209</v>
       </c>
@@ -7409,7 +7428,7 @@
       <c r="A232" s="10">
         <v>92</v>
       </c>
-      <c r="B232" s="23"/>
+      <c r="B232" s="32"/>
       <c r="C232" s="17" t="s">
         <v>208</v>
       </c>
@@ -7430,7 +7449,7 @@
       <c r="A233" s="10">
         <v>93</v>
       </c>
-      <c r="B233" s="23"/>
+      <c r="B233" s="32"/>
       <c r="C233" s="17" t="s">
         <v>208</v>
       </c>
@@ -7451,7 +7470,7 @@
       <c r="A234" s="10">
         <v>94</v>
       </c>
-      <c r="B234" s="23"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="17" t="s">
         <v>208</v>
       </c>
@@ -7472,7 +7491,7 @@
       <c r="A235" s="10">
         <v>95</v>
       </c>
-      <c r="B235" s="23"/>
+      <c r="B235" s="32"/>
       <c r="C235" s="17" t="s">
         <v>207</v>
       </c>
@@ -7493,7 +7512,7 @@
       <c r="A236" s="10">
         <v>96</v>
       </c>
-      <c r="B236" s="23"/>
+      <c r="B236" s="32"/>
       <c r="C236" s="17" t="s">
         <v>207</v>
       </c>
@@ -7514,7 +7533,7 @@
       <c r="A237" s="10">
         <v>97</v>
       </c>
-      <c r="B237" s="23"/>
+      <c r="B237" s="32"/>
       <c r="C237" s="17" t="s">
         <v>207</v>
       </c>
@@ -7535,7 +7554,7 @@
       <c r="A238" s="10">
         <v>98</v>
       </c>
-      <c r="B238" s="23"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="17" t="s">
         <v>206</v>
       </c>
@@ -7556,7 +7575,7 @@
       <c r="A239" s="10">
         <v>99</v>
       </c>
-      <c r="B239" s="23"/>
+      <c r="B239" s="32"/>
       <c r="C239" s="17" t="s">
         <v>206</v>
       </c>
@@ -7577,7 +7596,7 @@
       <c r="A240" s="10">
         <v>100</v>
       </c>
-      <c r="B240" s="23"/>
+      <c r="B240" s="32"/>
       <c r="C240" s="17" t="s">
         <v>206</v>
       </c>
@@ -7598,7 +7617,7 @@
       <c r="A241" s="10">
         <v>101</v>
       </c>
-      <c r="B241" s="23"/>
+      <c r="B241" s="32"/>
       <c r="C241" s="17" t="s">
         <v>205</v>
       </c>
@@ -7619,7 +7638,7 @@
       <c r="A242" s="10">
         <v>102</v>
       </c>
-      <c r="B242" s="23"/>
+      <c r="B242" s="32"/>
       <c r="C242" s="17" t="s">
         <v>205</v>
       </c>
@@ -7640,7 +7659,7 @@
       <c r="A243" s="10">
         <v>103</v>
       </c>
-      <c r="B243" s="23"/>
+      <c r="B243" s="32"/>
       <c r="C243" s="17" t="s">
         <v>205</v>
       </c>
@@ -7661,7 +7680,7 @@
       <c r="A244" s="10">
         <v>104</v>
       </c>
-      <c r="B244" s="23"/>
+      <c r="B244" s="32"/>
       <c r="C244" s="17" t="s">
         <v>204</v>
       </c>
@@ -7682,7 +7701,7 @@
       <c r="A245" s="10">
         <v>105</v>
       </c>
-      <c r="B245" s="23"/>
+      <c r="B245" s="32"/>
       <c r="C245" s="17" t="s">
         <v>204</v>
       </c>
@@ -7703,7 +7722,7 @@
       <c r="A246" s="10">
         <v>106</v>
       </c>
-      <c r="B246" s="23"/>
+      <c r="B246" s="32"/>
       <c r="C246" s="17" t="s">
         <v>204</v>
       </c>
@@ -7724,7 +7743,7 @@
       <c r="A247" s="10">
         <v>107</v>
       </c>
-      <c r="B247" s="23"/>
+      <c r="B247" s="32"/>
       <c r="C247" s="17" t="s">
         <v>225</v>
       </c>
@@ -7745,7 +7764,7 @@
       <c r="A248" s="10">
         <v>108</v>
       </c>
-      <c r="B248" s="23"/>
+      <c r="B248" s="32"/>
       <c r="C248" s="17" t="s">
         <v>225</v>
       </c>
@@ -7766,7 +7785,7 @@
       <c r="A249" s="10">
         <v>109</v>
       </c>
-      <c r="B249" s="23"/>
+      <c r="B249" s="32"/>
       <c r="C249" s="17" t="s">
         <v>225</v>
       </c>
@@ -7787,7 +7806,7 @@
       <c r="A250" s="10">
         <v>110</v>
       </c>
-      <c r="B250" s="23"/>
+      <c r="B250" s="32"/>
       <c r="C250" s="17" t="s">
         <v>218</v>
       </c>
@@ -7808,7 +7827,7 @@
       <c r="A251" s="10">
         <v>111</v>
       </c>
-      <c r="B251" s="23"/>
+      <c r="B251" s="32"/>
       <c r="C251" s="17" t="s">
         <v>218</v>
       </c>
@@ -7829,7 +7848,7 @@
       <c r="A252" s="10">
         <v>112</v>
       </c>
-      <c r="B252" s="23"/>
+      <c r="B252" s="32"/>
       <c r="C252" s="17" t="s">
         <v>218</v>
       </c>
@@ -7850,7 +7869,7 @@
       <c r="A253" s="10">
         <v>113</v>
       </c>
-      <c r="B253" s="23"/>
+      <c r="B253" s="32"/>
       <c r="C253" s="17" t="s">
         <v>217</v>
       </c>
@@ -7871,7 +7890,7 @@
       <c r="A254" s="10">
         <v>114</v>
       </c>
-      <c r="B254" s="23"/>
+      <c r="B254" s="32"/>
       <c r="C254" s="17" t="s">
         <v>217</v>
       </c>
@@ -7892,7 +7911,7 @@
       <c r="A255" s="10">
         <v>115</v>
       </c>
-      <c r="B255" s="23"/>
+      <c r="B255" s="32"/>
       <c r="C255" s="17" t="s">
         <v>217</v>
       </c>
@@ -7913,7 +7932,7 @@
       <c r="A256" s="10">
         <v>116</v>
       </c>
-      <c r="B256" s="23"/>
+      <c r="B256" s="32"/>
       <c r="C256" s="17" t="s">
         <v>224</v>
       </c>
@@ -7934,7 +7953,7 @@
       <c r="A257" s="10">
         <v>117</v>
       </c>
-      <c r="B257" s="23"/>
+      <c r="B257" s="32"/>
       <c r="C257" s="17" t="s">
         <v>224</v>
       </c>
@@ -7955,7 +7974,7 @@
       <c r="A258" s="10">
         <v>118</v>
       </c>
-      <c r="B258" s="23"/>
+      <c r="B258" s="32"/>
       <c r="C258" s="17" t="s">
         <v>224</v>
       </c>
@@ -7976,7 +7995,7 @@
       <c r="A259" s="10">
         <v>119</v>
       </c>
-      <c r="B259" s="23"/>
+      <c r="B259" s="32"/>
       <c r="C259" s="17" t="s">
         <v>223</v>
       </c>
@@ -7997,7 +8016,7 @@
       <c r="A260" s="10">
         <v>120</v>
       </c>
-      <c r="B260" s="23"/>
+      <c r="B260" s="32"/>
       <c r="C260" s="17" t="s">
         <v>223</v>
       </c>
@@ -8018,7 +8037,7 @@
       <c r="A261" s="10">
         <v>121</v>
       </c>
-      <c r="B261" s="23"/>
+      <c r="B261" s="32"/>
       <c r="C261" s="17" t="s">
         <v>223</v>
       </c>
@@ -8039,7 +8058,7 @@
       <c r="A262" s="10">
         <v>122</v>
       </c>
-      <c r="B262" s="23"/>
+      <c r="B262" s="32"/>
       <c r="C262" s="17" t="s">
         <v>222</v>
       </c>
@@ -8060,7 +8079,7 @@
       <c r="A263" s="10">
         <v>123</v>
       </c>
-      <c r="B263" s="23"/>
+      <c r="B263" s="32"/>
       <c r="C263" s="17" t="s">
         <v>222</v>
       </c>
@@ -8081,7 +8100,7 @@
       <c r="A264" s="10">
         <v>124</v>
       </c>
-      <c r="B264" s="23"/>
+      <c r="B264" s="32"/>
       <c r="C264" s="17" t="s">
         <v>222</v>
       </c>
@@ -8102,7 +8121,7 @@
       <c r="A265" s="10">
         <v>125</v>
       </c>
-      <c r="B265" s="23"/>
+      <c r="B265" s="32"/>
       <c r="C265" s="17" t="s">
         <v>346</v>
       </c>
@@ -8123,7 +8142,7 @@
       <c r="A266" s="10">
         <v>126</v>
       </c>
-      <c r="B266" s="23"/>
+      <c r="B266" s="32"/>
       <c r="C266" s="17" t="s">
         <v>346</v>
       </c>
@@ -8144,7 +8163,7 @@
       <c r="A267" s="10">
         <v>127</v>
       </c>
-      <c r="B267" s="23"/>
+      <c r="B267" s="32"/>
       <c r="C267" s="17" t="s">
         <v>346</v>
       </c>
@@ -8165,7 +8184,7 @@
       <c r="A268" s="10">
         <v>128</v>
       </c>
-      <c r="B268" s="23"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="17" t="s">
         <v>221</v>
       </c>
@@ -8186,7 +8205,7 @@
       <c r="A269" s="10">
         <v>129</v>
       </c>
-      <c r="B269" s="23"/>
+      <c r="B269" s="32"/>
       <c r="C269" s="17" t="s">
         <v>221</v>
       </c>
@@ -8207,7 +8226,7 @@
       <c r="A270" s="10">
         <v>130</v>
       </c>
-      <c r="B270" s="23"/>
+      <c r="B270" s="32"/>
       <c r="C270" s="17" t="s">
         <v>221</v>
       </c>
@@ -8228,7 +8247,7 @@
       <c r="A271" s="10">
         <v>131</v>
       </c>
-      <c r="B271" s="23"/>
+      <c r="B271" s="32"/>
       <c r="C271" s="17" t="s">
         <v>220</v>
       </c>
@@ -8249,7 +8268,7 @@
       <c r="A272" s="10">
         <v>132</v>
       </c>
-      <c r="B272" s="23"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="17" t="s">
         <v>220</v>
       </c>
@@ -8270,7 +8289,7 @@
       <c r="A273" s="10">
         <v>133</v>
       </c>
-      <c r="B273" s="23"/>
+      <c r="B273" s="32"/>
       <c r="C273" s="17" t="s">
         <v>220</v>
       </c>
@@ -8291,7 +8310,7 @@
       <c r="A274" s="10">
         <v>134</v>
       </c>
-      <c r="B274" s="23"/>
+      <c r="B274" s="32"/>
       <c r="C274" s="17" t="s">
         <v>347</v>
       </c>
@@ -8312,7 +8331,7 @@
       <c r="A275" s="10">
         <v>135</v>
       </c>
-      <c r="B275" s="23"/>
+      <c r="B275" s="32"/>
       <c r="C275" s="17" t="s">
         <v>347</v>
       </c>
@@ -8333,7 +8352,7 @@
       <c r="A276" s="10">
         <v>136</v>
       </c>
-      <c r="B276" s="23"/>
+      <c r="B276" s="32"/>
       <c r="C276" s="17" t="s">
         <v>347</v>
       </c>
@@ -8354,7 +8373,7 @@
       <c r="A277" s="10">
         <v>137</v>
       </c>
-      <c r="B277" s="23"/>
+      <c r="B277" s="32"/>
       <c r="C277" s="17" t="s">
         <v>219</v>
       </c>
@@ -8375,7 +8394,7 @@
       <c r="A278" s="10">
         <v>138</v>
       </c>
-      <c r="B278" s="23"/>
+      <c r="B278" s="32"/>
       <c r="C278" s="17" t="s">
         <v>219</v>
       </c>
@@ -8396,7 +8415,7 @@
       <c r="A279" s="10">
         <v>139</v>
       </c>
-      <c r="B279" s="23"/>
+      <c r="B279" s="32"/>
       <c r="C279" s="17" t="s">
         <v>219</v>
       </c>
@@ -8417,7 +8436,7 @@
       <c r="A280" s="10">
         <v>140</v>
       </c>
-      <c r="B280" s="23"/>
+      <c r="B280" s="32"/>
       <c r="C280" s="18" t="s">
         <v>200</v>
       </c>
@@ -8438,7 +8457,7 @@
       <c r="A281" s="10">
         <v>141</v>
       </c>
-      <c r="B281" s="23"/>
+      <c r="B281" s="32"/>
       <c r="C281" s="18" t="s">
         <v>200</v>
       </c>
@@ -8459,7 +8478,7 @@
       <c r="A282" s="10">
         <v>142</v>
       </c>
-      <c r="B282" s="23"/>
+      <c r="B282" s="32"/>
       <c r="C282" s="18" t="s">
         <v>200</v>
       </c>
@@ -8480,7 +8499,7 @@
       <c r="A283" s="10">
         <v>143</v>
       </c>
-      <c r="B283" s="23"/>
+      <c r="B283" s="32"/>
       <c r="C283" s="18" t="s">
         <v>199</v>
       </c>
@@ -8501,7 +8520,7 @@
       <c r="A284" s="10">
         <v>144</v>
       </c>
-      <c r="B284" s="23"/>
+      <c r="B284" s="32"/>
       <c r="C284" s="18" t="s">
         <v>199</v>
       </c>
@@ -8522,7 +8541,7 @@
       <c r="A285" s="10">
         <v>145</v>
       </c>
-      <c r="B285" s="23"/>
+      <c r="B285" s="32"/>
       <c r="C285" s="18" t="s">
         <v>199</v>
       </c>
@@ -8543,7 +8562,7 @@
       <c r="A286" s="10">
         <v>146</v>
       </c>
-      <c r="B286" s="23"/>
+      <c r="B286" s="32"/>
       <c r="C286" s="18" t="s">
         <v>198</v>
       </c>
@@ -8564,7 +8583,7 @@
       <c r="A287" s="10">
         <v>147</v>
       </c>
-      <c r="B287" s="23"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="18" t="s">
         <v>198</v>
       </c>
@@ -8585,7 +8604,7 @@
       <c r="A288" s="10">
         <v>148</v>
       </c>
-      <c r="B288" s="23"/>
+      <c r="B288" s="32"/>
       <c r="C288" s="18" t="s">
         <v>198</v>
       </c>
@@ -8606,7 +8625,7 @@
       <c r="A289" s="10">
         <v>149</v>
       </c>
-      <c r="B289" s="23"/>
+      <c r="B289" s="32"/>
       <c r="C289" s="18" t="s">
         <v>203</v>
       </c>
@@ -8627,7 +8646,7 @@
       <c r="A290" s="10">
         <v>150</v>
       </c>
-      <c r="B290" s="23"/>
+      <c r="B290" s="32"/>
       <c r="C290" s="18" t="s">
         <v>203</v>
       </c>
@@ -8648,7 +8667,7 @@
       <c r="A291" s="10">
         <v>151</v>
       </c>
-      <c r="B291" s="23"/>
+      <c r="B291" s="32"/>
       <c r="C291" s="18" t="s">
         <v>203</v>
       </c>
@@ -8669,7 +8688,7 @@
       <c r="A292" s="10">
         <v>152</v>
       </c>
-      <c r="B292" s="23"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="18" t="s">
         <v>202</v>
       </c>
@@ -8690,7 +8709,7 @@
       <c r="A293" s="10">
         <v>153</v>
       </c>
-      <c r="B293" s="23"/>
+      <c r="B293" s="32"/>
       <c r="C293" s="18" t="s">
         <v>202</v>
       </c>
@@ -8711,7 +8730,7 @@
       <c r="A294" s="10">
         <v>154</v>
       </c>
-      <c r="B294" s="23"/>
+      <c r="B294" s="32"/>
       <c r="C294" s="18" t="s">
         <v>202</v>
       </c>
@@ -8732,7 +8751,7 @@
       <c r="A295" s="10">
         <v>155</v>
       </c>
-      <c r="B295" s="23"/>
+      <c r="B295" s="32"/>
       <c r="C295" s="18" t="s">
         <v>201</v>
       </c>
@@ -8753,7 +8772,7 @@
       <c r="A296" s="10">
         <v>156</v>
       </c>
-      <c r="B296" s="23"/>
+      <c r="B296" s="32"/>
       <c r="C296" s="18" t="s">
         <v>201</v>
       </c>
@@ -8774,7 +8793,7 @@
       <c r="A297" s="10">
         <v>157</v>
       </c>
-      <c r="B297" s="23"/>
+      <c r="B297" s="32"/>
       <c r="C297" s="18" t="s">
         <v>201</v>
       </c>
@@ -8795,7 +8814,7 @@
       <c r="A298" s="10">
         <v>158</v>
       </c>
-      <c r="B298" s="23"/>
+      <c r="B298" s="32"/>
       <c r="C298" s="18" t="s">
         <v>348</v>
       </c>
@@ -8816,7 +8835,7 @@
       <c r="A299" s="10">
         <v>159</v>
       </c>
-      <c r="B299" s="23"/>
+      <c r="B299" s="32"/>
       <c r="C299" s="18" t="s">
         <v>348</v>
       </c>
@@ -8837,7 +8856,7 @@
       <c r="A300" s="10">
         <v>160</v>
       </c>
-      <c r="B300" s="23"/>
+      <c r="B300" s="32"/>
       <c r="C300" s="18" t="s">
         <v>348</v>
       </c>
@@ -8858,7 +8877,7 @@
       <c r="A301" s="10">
         <v>161</v>
       </c>
-      <c r="B301" s="23"/>
+      <c r="B301" s="32"/>
       <c r="C301" s="17" t="s">
         <v>216</v>
       </c>
@@ -8879,7 +8898,7 @@
       <c r="A302" s="10">
         <v>162</v>
       </c>
-      <c r="B302" s="23"/>
+      <c r="B302" s="32"/>
       <c r="C302" s="17" t="s">
         <v>216</v>
       </c>
@@ -8900,7 +8919,7 @@
       <c r="A303" s="10">
         <v>163</v>
       </c>
-      <c r="B303" s="23"/>
+      <c r="B303" s="32"/>
       <c r="C303" s="17" t="s">
         <v>216</v>
       </c>
@@ -8921,7 +8940,7 @@
       <c r="A304" s="10">
         <v>164</v>
       </c>
-      <c r="B304" s="23"/>
+      <c r="B304" s="32"/>
       <c r="C304" s="17" t="s">
         <v>215</v>
       </c>
@@ -8942,7 +8961,7 @@
       <c r="A305" s="10">
         <v>165</v>
       </c>
-      <c r="B305" s="23"/>
+      <c r="B305" s="32"/>
       <c r="C305" s="17" t="s">
         <v>215</v>
       </c>
@@ -8963,7 +8982,7 @@
       <c r="A306" s="10">
         <v>166</v>
       </c>
-      <c r="B306" s="23"/>
+      <c r="B306" s="32"/>
       <c r="C306" s="17" t="s">
         <v>215</v>
       </c>
@@ -8984,7 +9003,7 @@
       <c r="A307" s="10">
         <v>167</v>
       </c>
-      <c r="B307" s="23"/>
+      <c r="B307" s="32"/>
       <c r="C307" s="17" t="s">
         <v>214</v>
       </c>
@@ -9005,7 +9024,7 @@
       <c r="A308" s="10">
         <v>168</v>
       </c>
-      <c r="B308" s="23"/>
+      <c r="B308" s="32"/>
       <c r="C308" s="17" t="s">
         <v>214</v>
       </c>
@@ -9026,7 +9045,7 @@
       <c r="A309" s="10">
         <v>169</v>
       </c>
-      <c r="B309" s="23"/>
+      <c r="B309" s="32"/>
       <c r="C309" s="17" t="s">
         <v>214</v>
       </c>
@@ -9047,7 +9066,7 @@
       <c r="A310" s="10">
         <v>170</v>
       </c>
-      <c r="B310" s="23"/>
+      <c r="B310" s="32"/>
       <c r="C310" s="17" t="s">
         <v>213</v>
       </c>
@@ -9068,7 +9087,7 @@
       <c r="A311" s="10">
         <v>171</v>
       </c>
-      <c r="B311" s="23"/>
+      <c r="B311" s="32"/>
       <c r="C311" s="17" t="s">
         <v>213</v>
       </c>
@@ -9089,7 +9108,7 @@
       <c r="A312" s="10">
         <v>172</v>
       </c>
-      <c r="B312" s="23"/>
+      <c r="B312" s="32"/>
       <c r="C312" s="17" t="s">
         <v>213</v>
       </c>
@@ -9110,7 +9129,7 @@
       <c r="A313" s="10">
         <v>173</v>
       </c>
-      <c r="B313" s="23" t="s">
+      <c r="B313" s="32" t="s">
         <v>414</v>
       </c>
       <c r="C313" s="10" t="s">
@@ -9133,7 +9152,7 @@
       <c r="A314" s="10">
         <v>174</v>
       </c>
-      <c r="B314" s="23"/>
+      <c r="B314" s="32"/>
       <c r="C314" s="10" t="s">
         <v>150</v>
       </c>
@@ -9154,7 +9173,7 @@
       <c r="A315" s="10">
         <v>175</v>
       </c>
-      <c r="B315" s="23"/>
+      <c r="B315" s="32"/>
       <c r="C315" s="10" t="s">
         <v>149</v>
       </c>
@@ -9175,7 +9194,7 @@
       <c r="A316" s="10">
         <v>176</v>
       </c>
-      <c r="B316" s="23"/>
+      <c r="B316" s="32"/>
       <c r="C316" s="10" t="s">
         <v>149</v>
       </c>
@@ -9186,17 +9205,17 @@
         <v>369</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>417</v>
+        <v>519</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A317" s="10">
         <v>177</v>
       </c>
-      <c r="B317" s="23"/>
+      <c r="B317" s="32"/>
       <c r="C317" s="10" t="s">
         <v>147</v>
       </c>
@@ -9217,7 +9236,7 @@
       <c r="A318" s="10">
         <v>178</v>
       </c>
-      <c r="B318" s="23"/>
+      <c r="B318" s="32"/>
       <c r="C318" s="10" t="s">
         <v>147</v>
       </c>
@@ -9238,7 +9257,7 @@
       <c r="A319" s="10">
         <v>179</v>
       </c>
-      <c r="B319" s="23"/>
+      <c r="B319" s="32"/>
       <c r="C319" s="10" t="s">
         <v>162</v>
       </c>
@@ -9259,7 +9278,7 @@
       <c r="A320" s="10">
         <v>180</v>
       </c>
-      <c r="B320" s="23"/>
+      <c r="B320" s="32"/>
       <c r="C320" s="10" t="s">
         <v>162</v>
       </c>
@@ -9280,7 +9299,7 @@
       <c r="A321" s="10">
         <v>181</v>
       </c>
-      <c r="B321" s="23"/>
+      <c r="B321" s="32"/>
       <c r="C321" s="10" t="s">
         <v>148</v>
       </c>
@@ -9301,7 +9320,7 @@
       <c r="A322" s="10">
         <v>182</v>
       </c>
-      <c r="B322" s="23"/>
+      <c r="B322" s="32"/>
       <c r="C322" s="10" t="s">
         <v>148</v>
       </c>
@@ -9322,7 +9341,7 @@
       <c r="A323" s="10">
         <v>183</v>
       </c>
-      <c r="B323" s="23" t="s">
+      <c r="B323" s="32" t="s">
         <v>415</v>
       </c>
       <c r="C323" s="10" t="s">
@@ -9345,7 +9364,7 @@
       <c r="A324" s="10">
         <v>184</v>
       </c>
-      <c r="B324" s="23"/>
+      <c r="B324" s="32"/>
       <c r="C324" s="10" t="s">
         <v>151</v>
       </c>
@@ -9366,7 +9385,7 @@
       <c r="A325" s="10">
         <v>185</v>
       </c>
-      <c r="B325" s="23"/>
+      <c r="B325" s="32"/>
       <c r="C325" s="10" t="s">
         <v>152</v>
       </c>
@@ -9387,7 +9406,7 @@
       <c r="A326" s="10">
         <v>186</v>
       </c>
-      <c r="B326" s="23"/>
+      <c r="B326" s="32"/>
       <c r="C326" s="10" t="s">
         <v>152</v>
       </c>
@@ -9408,7 +9427,7 @@
       <c r="A327" s="10">
         <v>187</v>
       </c>
-      <c r="B327" s="23"/>
+      <c r="B327" s="32"/>
       <c r="C327" s="10" t="s">
         <v>154</v>
       </c>
@@ -9429,7 +9448,7 @@
       <c r="A328" s="10">
         <v>188</v>
       </c>
-      <c r="B328" s="23"/>
+      <c r="B328" s="32"/>
       <c r="C328" s="10" t="s">
         <v>154</v>
       </c>
@@ -9450,7 +9469,7 @@
       <c r="A329" s="10">
         <v>189</v>
       </c>
-      <c r="B329" s="23"/>
+      <c r="B329" s="32"/>
       <c r="C329" s="10" t="s">
         <v>155</v>
       </c>
@@ -9471,7 +9490,7 @@
       <c r="A330" s="10">
         <v>190</v>
       </c>
-      <c r="B330" s="23"/>
+      <c r="B330" s="32"/>
       <c r="C330" s="10" t="s">
         <v>155</v>
       </c>
@@ -9492,7 +9511,7 @@
       <c r="A331" s="10">
         <v>191</v>
       </c>
-      <c r="B331" s="23"/>
+      <c r="B331" s="32"/>
       <c r="C331" s="10" t="s">
         <v>157</v>
       </c>
@@ -9513,7 +9532,7 @@
       <c r="A332" s="10">
         <v>192</v>
       </c>
-      <c r="B332" s="23"/>
+      <c r="B332" s="32"/>
       <c r="C332" s="10" t="s">
         <v>157</v>
       </c>
@@ -9534,7 +9553,7 @@
       <c r="A333" s="10">
         <v>193</v>
       </c>
-      <c r="B333" s="23"/>
+      <c r="B333" s="32"/>
       <c r="C333" s="10" t="s">
         <v>156</v>
       </c>
@@ -9555,7 +9574,7 @@
       <c r="A334" s="10">
         <v>194</v>
       </c>
-      <c r="B334" s="23"/>
+      <c r="B334" s="32"/>
       <c r="C334" s="10" t="s">
         <v>156</v>
       </c>
@@ -9576,7 +9595,7 @@
       <c r="A335" s="10">
         <v>195</v>
       </c>
-      <c r="B335" s="23"/>
+      <c r="B335" s="32"/>
       <c r="C335" s="10" t="s">
         <v>158</v>
       </c>
@@ -9597,7 +9616,7 @@
       <c r="A336" s="10">
         <v>196</v>
       </c>
-      <c r="B336" s="23"/>
+      <c r="B336" s="32"/>
       <c r="C336" s="10" t="s">
         <v>159</v>
       </c>
@@ -9618,7 +9637,7 @@
       <c r="A337" s="10">
         <v>197</v>
       </c>
-      <c r="B337" s="23"/>
+      <c r="B337" s="32"/>
       <c r="C337" s="10" t="s">
         <v>160</v>
       </c>
@@ -9639,7 +9658,7 @@
       <c r="A338" s="10">
         <v>198</v>
       </c>
-      <c r="B338" s="23"/>
+      <c r="B338" s="32"/>
       <c r="C338" s="10" t="s">
         <v>161</v>
       </c>
@@ -9660,7 +9679,7 @@
       <c r="A339" s="10">
         <v>199</v>
       </c>
-      <c r="B339" s="23" t="s">
+      <c r="B339" s="32" t="s">
         <v>416</v>
       </c>
       <c r="C339" s="14" t="s">
@@ -9683,7 +9702,7 @@
       <c r="A340" s="10">
         <v>200</v>
       </c>
-      <c r="B340" s="23"/>
+      <c r="B340" s="32"/>
       <c r="C340" s="14" t="s">
         <v>93</v>
       </c>
@@ -9704,7 +9723,7 @@
       <c r="A341" s="10">
         <v>201</v>
       </c>
-      <c r="B341" s="23"/>
+      <c r="B341" s="32"/>
       <c r="C341" s="14" t="s">
         <v>94</v>
       </c>
@@ -9715,17 +9734,17 @@
         <v>401</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>417</v>
+        <v>520</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
         <v>202</v>
       </c>
-      <c r="B342" s="23"/>
+      <c r="B342" s="32"/>
       <c r="C342" s="14" t="s">
         <v>95</v>
       </c>
@@ -9746,7 +9765,7 @@
       <c r="A343" s="10">
         <v>203</v>
       </c>
-      <c r="B343" s="23"/>
+      <c r="B343" s="32"/>
       <c r="C343" s="14" t="s">
         <v>96</v>
       </c>
@@ -9767,7 +9786,7 @@
       <c r="A344" s="10">
         <v>204</v>
       </c>
-      <c r="B344" s="23"/>
+      <c r="B344" s="32"/>
       <c r="C344" s="14" t="s">
         <v>97</v>
       </c>
@@ -9788,7 +9807,7 @@
       <c r="A345" s="10">
         <v>205</v>
       </c>
-      <c r="B345" s="23"/>
+      <c r="B345" s="32"/>
       <c r="C345" s="14" t="s">
         <v>98</v>
       </c>
@@ -9807,7 +9826,7 @@
       <c r="A346" s="10">
         <v>206</v>
       </c>
-      <c r="B346" s="23"/>
+      <c r="B346" s="32"/>
       <c r="C346" s="14" t="s">
         <v>395</v>
       </c>
@@ -9828,7 +9847,7 @@
       <c r="A347" s="10">
         <v>207</v>
       </c>
-      <c r="B347" s="23"/>
+      <c r="B347" s="32"/>
       <c r="C347" s="14" t="s">
         <v>99</v>
       </c>
@@ -9849,7 +9868,7 @@
       <c r="A348" s="10">
         <v>208</v>
       </c>
-      <c r="B348" s="23"/>
+      <c r="B348" s="32"/>
       <c r="C348" s="14" t="s">
         <v>397</v>
       </c>
@@ -9870,7 +9889,7 @@
       <c r="A349" s="10">
         <v>209</v>
       </c>
-      <c r="B349" s="23"/>
+      <c r="B349" s="32"/>
       <c r="C349" s="14" t="s">
         <v>100</v>
       </c>
@@ -9892,7 +9911,7 @@
       <c r="A350" s="10">
         <v>210</v>
       </c>
-      <c r="B350" s="23"/>
+      <c r="B350" s="32"/>
       <c r="C350" s="14" t="s">
         <v>396</v>
       </c>
@@ -9913,7 +9932,7 @@
       <c r="A351" s="10">
         <v>211</v>
       </c>
-      <c r="B351" s="23"/>
+      <c r="B351" s="32"/>
       <c r="C351" s="14" t="s">
         <v>101</v>
       </c>
@@ -9934,7 +9953,7 @@
       <c r="A352" s="10">
         <v>212</v>
       </c>
-      <c r="B352" s="23"/>
+      <c r="B352" s="32"/>
       <c r="C352" s="14" t="s">
         <v>102</v>
       </c>
@@ -9964,43 +9983,70 @@
       <c r="J353" s="7"/>
     </row>
     <row r="354" spans="1:10" s="4" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="31" t="s">
+      <c r="A354" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B354" s="32"/>
-      <c r="C354" s="33"/>
-      <c r="D354" s="31"/>
-      <c r="E354" s="32"/>
-      <c r="F354" s="32"/>
-      <c r="G354" s="33"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="22"/>
       <c r="J354" s="7"/>
     </row>
     <row r="355" spans="1:10" s="4" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="31" t="s">
+      <c r="A355" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="B355" s="32"/>
-      <c r="C355" s="33"/>
-      <c r="D355" s="31"/>
-      <c r="E355" s="32"/>
-      <c r="F355" s="32"/>
-      <c r="G355" s="33"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="20"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+      <c r="G355" s="22"/>
       <c r="J355" s="7"/>
     </row>
     <row r="356" spans="1:10" s="4" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="31" t="s">
+      <c r="A356" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B356" s="32"/>
-      <c r="C356" s="33"/>
-      <c r="D356" s="31"/>
-      <c r="E356" s="32"/>
-      <c r="F356" s="32"/>
-      <c r="G356" s="33"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
+      <c r="G356" s="22"/>
       <c r="J356" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="D354:G354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:G355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="B141:B312"/>
+    <mergeCell ref="B313:B322"/>
+    <mergeCell ref="B323:B338"/>
+    <mergeCell ref="B339:B352"/>
+    <mergeCell ref="A353:G353"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B3:B37"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B38:B56"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C38:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C83:C87"/>
     <mergeCell ref="D356:G356"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A139:G139"/>
@@ -10015,35 +10061,8 @@
     <mergeCell ref="C120:C124"/>
     <mergeCell ref="B125:B137"/>
     <mergeCell ref="C125:C131"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="B57:B74"/>
-    <mergeCell ref="B38:B56"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C38:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B37"/>
-    <mergeCell ref="C31:C34"/>
     <mergeCell ref="C133:C134"/>
     <mergeCell ref="C135:C137"/>
-    <mergeCell ref="B141:B312"/>
-    <mergeCell ref="B313:B322"/>
-    <mergeCell ref="B323:B338"/>
-    <mergeCell ref="B339:B352"/>
-    <mergeCell ref="A353:G353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:G354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:G355"/>
-    <mergeCell ref="A356:C356"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G141:G345 G357:G1048576 G1:G88 G138">
